--- a/files/Matières/Emplois du temps/T/week-end du 12 au 13 12 2020.xlsx
+++ b/files/Matières/Emplois du temps/T/week-end du 12 au 13 12 2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry PC\Documents\001 Github prog Sharing\Backup-of-matiere\files\Matières\Emplois du temps\T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0E5C4ED-561E-4743-8439-826E3B6967B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEFC5DF-0A47-4015-A799-852B653A9DD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{D40361C1-A8EA-46C0-A69B-87428341B193}"/>
   </bookViews>
@@ -51,9 +51,6 @@
     <t>Levé</t>
   </si>
   <si>
-    <t>Déjeuné, sinon faire de qui suit</t>
-  </si>
-  <si>
     <t>Levé + préparation</t>
   </si>
   <si>
@@ -67,6 +64,9 @@
   <si>
     <t>LANGUE LITT ET CULTURE:
 Vocabulary test</t>
+  </si>
+  <si>
+    <t>Déjeuné, sinon faire ce qui suit</t>
   </si>
   <si>
     <t>ALLEMAND:
@@ -750,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DEF4BEA-4441-4735-A026-1FB2A97AA8C8}">
   <dimension ref="C2:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41:G41"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37:G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -864,7 +864,7 @@
         <v>0.39583333333333298</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -931,7 +931,7 @@
         <v>0.44791666666666702</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -993,18 +993,18 @@
       <c r="J19" s="10"/>
       <c r="K19" s="11"/>
     </row>
-    <row r="20" spans="3:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="3:11" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C20" s="5">
         <v>0.5</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="8"/>
       <c r="H20" s="6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -1119,7 +1119,7 @@
         <v>0.59375</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
@@ -1173,7 +1173,7 @@
         <v>0.63541666666666696</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
